--- a/instrument_info.xlsx
+++ b/instrument_info.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HERAMB\Desktop\pandas\timesequence program copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HERAMB\cold atom exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2058F3CA-BC5E-4279-A2EB-020E46136EAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE0620F-9455-4B6B-A24B-BAD6CCB107FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instrument_info" sheetId="1" r:id="rId1"/>
+    <sheet name="instrument_calib" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +72,15 @@
   </si>
   <si>
     <t>image beam</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>Instrument name</t>
+  </si>
+  <si>
+    <t>[0,1]</t>
   </si>
 </sst>
 </file>
@@ -935,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,4 +1149,39 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF22C71-6FD8-4642-B658-07CB75A63290}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/instrument_info.xlsx
+++ b/instrument_info.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HERAMB\cold atom exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE0620F-9455-4B6B-A24B-BAD6CCB107FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57822A94-8EE7-4BBC-8D0A-9169C8C07098}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instrument_info" sheetId="1" r:id="rId1"/>
-    <sheet name="instrument_calib" sheetId="2" r:id="rId2"/>
+    <sheet name="instrument_transfer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/instrument_info.xlsx
+++ b/instrument_info.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HERAMB\cold atom exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57822A94-8EE7-4BBC-8D0A-9169C8C07098}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209AA014-27CC-472C-86B0-B69C364B322E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instrument_info" sheetId="1" r:id="rId1"/>
-    <sheet name="instrument_transfer" sheetId="2" r:id="rId2"/>
+    <sheet name="instrument_function" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -74,13 +74,28 @@
     <t>image beam</t>
   </si>
   <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>Instrument name</t>
-  </si>
-  <si>
     <t>[0,1]</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>coeffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> name</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>poly</t>
+  </si>
+  <si>
+    <t>[2,1]</t>
+  </si>
+  <si>
+    <t>[-1,1]</t>
   </si>
 </sst>
 </file>
@@ -946,7 +961,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,32 +1168,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF22C71-6FD8-4642-B658-07CB75A63290}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/instrument_info.xlsx
+++ b/instrument_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HERAMB\cold atom exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209AA014-27CC-472C-86B0-B69C364B322E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC3AE4B-58EF-4F2C-8610-F830AF184DE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -83,12 +83,6 @@
     <t>coeffs</t>
   </si>
   <si>
-    <t xml:space="preserve"> name</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
     <t>poly</t>
   </si>
   <si>
@@ -96,6 +90,9 @@
   </si>
   <si>
     <t>[-1,1]</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1168,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,10 +1179,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
@@ -1196,7 +1193,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1207,7 +1204,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1218,10 +1215,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,10 +1226,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/instrument_info.xlsx
+++ b/instrument_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HERAMB\cold atom exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HERAMB\cold atom exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC3AE4B-58EF-4F2C-8610-F830AF184DE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FCA8EE-59C1-4863-B1F2-9E7EA813A6E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instrument_info" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>[0.5,0.5]</t>
   </si>
 </sst>
 </file>
@@ -958,7 +964,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF22C71-6FD8-4642-B658-07CB75A63290}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1238,30 @@
         <v>22</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/instrument_info.xlsx
+++ b/instrument_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HERAMB\Desktop\pandas\timesequence program copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IITG-PHY\Desktop\Computer Control\cold atom exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2058F3CA-BC5E-4279-A2EB-020E46136EAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F3F122-9452-4FA1-9E5C-046AAF2127D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -37,40 +37,247 @@
     <t>channel_number</t>
   </si>
   <si>
-    <t>AOM</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>Blue MOT</t>
-  </si>
-  <si>
-    <t>Helmholtz Coil</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>780 power</t>
-  </si>
-  <si>
-    <t>780 detuning</t>
-  </si>
-  <si>
-    <t>420 power</t>
-  </si>
-  <si>
-    <t>420 detuning</t>
-  </si>
-  <si>
-    <t>coil current</t>
-  </si>
-  <si>
-    <t>camera</t>
-  </si>
-  <si>
-    <t>image beam</t>
+    <t>D1CH1</t>
+  </si>
+  <si>
+    <t>D1CH2</t>
+  </si>
+  <si>
+    <t>D1CH3</t>
+  </si>
+  <si>
+    <t>D1CH4</t>
+  </si>
+  <si>
+    <t>D1CH5</t>
+  </si>
+  <si>
+    <t>D1CH6</t>
+  </si>
+  <si>
+    <t>D1CH7</t>
+  </si>
+  <si>
+    <t>D1CH8</t>
+  </si>
+  <si>
+    <t>D1CH9</t>
+  </si>
+  <si>
+    <t>D1CH10</t>
+  </si>
+  <si>
+    <t>D1CH11</t>
+  </si>
+  <si>
+    <t>D1CH12</t>
+  </si>
+  <si>
+    <t>D1CH13</t>
+  </si>
+  <si>
+    <t>D1CH14</t>
+  </si>
+  <si>
+    <t>D1CH15</t>
+  </si>
+  <si>
+    <t>D1CH16</t>
+  </si>
+  <si>
+    <t>D2CH1</t>
+  </si>
+  <si>
+    <t>D2CH2</t>
+  </si>
+  <si>
+    <t>D2CH3</t>
+  </si>
+  <si>
+    <t>D2CH4</t>
+  </si>
+  <si>
+    <t>D2CH5</t>
+  </si>
+  <si>
+    <t>D2CH6</t>
+  </si>
+  <si>
+    <t>D2CH7</t>
+  </si>
+  <si>
+    <t>D2CH8</t>
+  </si>
+  <si>
+    <t>D2CH9</t>
+  </si>
+  <si>
+    <t>D2CH10</t>
+  </si>
+  <si>
+    <t>D2CH11</t>
+  </si>
+  <si>
+    <t>D2CH12</t>
+  </si>
+  <si>
+    <t>D2CH13</t>
+  </si>
+  <si>
+    <t>D2CH14</t>
+  </si>
+  <si>
+    <t>D2CH15</t>
+  </si>
+  <si>
+    <t>D2CH16</t>
+  </si>
+  <si>
+    <t>D3CH1</t>
+  </si>
+  <si>
+    <t>D3CH2</t>
+  </si>
+  <si>
+    <t>D3CH3</t>
+  </si>
+  <si>
+    <t>D3CH4</t>
+  </si>
+  <si>
+    <t>D3CH5</t>
+  </si>
+  <si>
+    <t>D3CH6</t>
+  </si>
+  <si>
+    <t>D3CH7</t>
+  </si>
+  <si>
+    <t>D3CH8</t>
+  </si>
+  <si>
+    <t>D3CH9</t>
+  </si>
+  <si>
+    <t>D3CH10</t>
+  </si>
+  <si>
+    <t>D3CH11</t>
+  </si>
+  <si>
+    <t>D3CH12</t>
+  </si>
+  <si>
+    <t>D3CH13</t>
+  </si>
+  <si>
+    <t>D3CH14</t>
+  </si>
+  <si>
+    <t>D3CH15</t>
+  </si>
+  <si>
+    <t>D3CH16</t>
+  </si>
+  <si>
+    <t>D4CH1</t>
+  </si>
+  <si>
+    <t>D4CH2</t>
+  </si>
+  <si>
+    <t>D4CH3</t>
+  </si>
+  <si>
+    <t>D4CH4</t>
+  </si>
+  <si>
+    <t>D4CH5</t>
+  </si>
+  <si>
+    <t>D4CH6</t>
+  </si>
+  <si>
+    <t>D4CH7</t>
+  </si>
+  <si>
+    <t>D4CH8</t>
+  </si>
+  <si>
+    <t>D4CH9</t>
+  </si>
+  <si>
+    <t>D4CH10</t>
+  </si>
+  <si>
+    <t>D4CH11</t>
+  </si>
+  <si>
+    <t>D4CH12</t>
+  </si>
+  <si>
+    <t>D4CH13</t>
+  </si>
+  <si>
+    <t>D4CH14</t>
+  </si>
+  <si>
+    <t>D4CH15</t>
+  </si>
+  <si>
+    <t>D4CH16</t>
+  </si>
+  <si>
+    <t>D5CH1</t>
+  </si>
+  <si>
+    <t>D5CH2</t>
+  </si>
+  <si>
+    <t>D5CH3</t>
+  </si>
+  <si>
+    <t>D5CH4</t>
+  </si>
+  <si>
+    <t>D5CH5</t>
+  </si>
+  <si>
+    <t>D5CH6</t>
+  </si>
+  <si>
+    <t>D5CH7</t>
+  </si>
+  <si>
+    <t>D5CH8</t>
+  </si>
+  <si>
+    <t>D5CH9</t>
+  </si>
+  <si>
+    <t>D5CH10</t>
+  </si>
+  <si>
+    <t>D5CH11</t>
+  </si>
+  <si>
+    <t>D5CH12</t>
+  </si>
+  <si>
+    <t>D5CH13</t>
+  </si>
+  <si>
+    <t>D5CH14</t>
+  </si>
+  <si>
+    <t>D5CH15</t>
+  </si>
+  <si>
+    <t>D5CH16</t>
   </si>
 </sst>
 </file>
@@ -933,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,13 +1170,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -980,13 +1187,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -997,13 +1204,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1014,13 +1221,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1031,104 +1238,1294 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>9</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="B11">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
         <v>9</v>
       </c>
-      <c r="D11">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
         <v>7</v>
       </c>
-      <c r="E11">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
         <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>5000</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/instrument_info.xlsx
+++ b/instrument_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IITG-PHY\Desktop\Computer Control\cold atom exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F3F122-9452-4FA1-9E5C-046AAF2127D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0594EE6E-D331-44D8-9FD4-D3460154C7D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2295,7 +2295,7 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>

--- a/instrument_info.xlsx
+++ b/instrument_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IITG-PHY\Desktop\Computer Control\cold atom exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0594EE6E-D331-44D8-9FD4-D3460154C7D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAA5CD3-C6FA-4518-A85B-0EDC29523068}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -278,6 +278,129 @@
   </si>
   <si>
     <t>D5CH16</t>
+  </si>
+  <si>
+    <t>A1CH1</t>
+  </si>
+  <si>
+    <t>A1CH2</t>
+  </si>
+  <si>
+    <t>A1CH3</t>
+  </si>
+  <si>
+    <t>A1CH4</t>
+  </si>
+  <si>
+    <t>A1CH5</t>
+  </si>
+  <si>
+    <t>A1CH6</t>
+  </si>
+  <si>
+    <t>A1CH7</t>
+  </si>
+  <si>
+    <t>A1CH8</t>
+  </si>
+  <si>
+    <t>A2CH1</t>
+  </si>
+  <si>
+    <t>A2CH2</t>
+  </si>
+  <si>
+    <t>A2CH3</t>
+  </si>
+  <si>
+    <t>A2CH4</t>
+  </si>
+  <si>
+    <t>A2CH5</t>
+  </si>
+  <si>
+    <t>A2CH6</t>
+  </si>
+  <si>
+    <t>A2CH7</t>
+  </si>
+  <si>
+    <t>A2CH8</t>
+  </si>
+  <si>
+    <t>A3CH1</t>
+  </si>
+  <si>
+    <t>A3CH2</t>
+  </si>
+  <si>
+    <t>A3CH3</t>
+  </si>
+  <si>
+    <t>A3CH4</t>
+  </si>
+  <si>
+    <t>A3CH5</t>
+  </si>
+  <si>
+    <t>A3CH6</t>
+  </si>
+  <si>
+    <t>A3CH7</t>
+  </si>
+  <si>
+    <t>A3CH8</t>
+  </si>
+  <si>
+    <t>A4CH1</t>
+  </si>
+  <si>
+    <t>A4CH2</t>
+  </si>
+  <si>
+    <t>A4CH3</t>
+  </si>
+  <si>
+    <t>A4CH4</t>
+  </si>
+  <si>
+    <t>A4CH5</t>
+  </si>
+  <si>
+    <t>A4CH6</t>
+  </si>
+  <si>
+    <t>A4CH7</t>
+  </si>
+  <si>
+    <t>A4CH8</t>
+  </si>
+  <si>
+    <t>A5CH1</t>
+  </si>
+  <si>
+    <t>A5CH2</t>
+  </si>
+  <si>
+    <t>A5CH3</t>
+  </si>
+  <si>
+    <t>A5CH4</t>
+  </si>
+  <si>
+    <t>A5CH5</t>
+  </si>
+  <si>
+    <t>A5CH6</t>
+  </si>
+  <si>
+    <t>A5CH7</t>
+  </si>
+  <si>
+    <t>A5CH8</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -420,7 +543,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,14 +723,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -722,19 +839,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -780,11 +884,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1140,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1252,7 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1184,8 +1285,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1201,13 +1305,16 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1218,8 +1325,11 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1235,8 +1345,11 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1252,9 +1365,12 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
@@ -1269,9 +1385,12 @@
       <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8">
@@ -1286,9 +1405,12 @@
       <c r="E8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9">
@@ -1303,9 +1425,12 @@
       <c r="E9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10">
@@ -1320,9 +1445,12 @@
       <c r="E10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11">
@@ -1337,8 +1465,11 @@
       <c r="E11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1354,8 +1485,11 @@
       <c r="E12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1371,8 +1505,11 @@
       <c r="E13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1388,8 +1525,11 @@
       <c r="E14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1405,8 +1545,11 @@
       <c r="E15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1422,8 +1565,11 @@
       <c r="E16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1439,8 +1585,11 @@
       <c r="E17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1456,8 +1605,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1473,8 +1625,11 @@
       <c r="E19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1645,11 @@
       <c r="E20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1507,8 +1665,11 @@
       <c r="E21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1524,8 +1685,11 @@
       <c r="E22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1541,8 +1705,11 @@
       <c r="E23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1558,8 +1725,11 @@
       <c r="E24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1575,8 +1745,11 @@
       <c r="E25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1592,8 +1765,11 @@
       <c r="E26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1609,8 +1785,11 @@
       <c r="E27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1626,8 +1805,11 @@
       <c r="E28">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1643,8 +1825,11 @@
       <c r="E29">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1660,8 +1845,11 @@
       <c r="E30">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1677,8 +1865,11 @@
       <c r="E31">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1694,8 +1885,11 @@
       <c r="E32">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1711,8 +1905,11 @@
       <c r="E33">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1728,8 +1925,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1745,8 +1945,11 @@
       <c r="E35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1762,8 +1965,11 @@
       <c r="E36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1779,8 +1985,11 @@
       <c r="E37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1796,8 +2005,11 @@
       <c r="E38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1813,8 +2025,11 @@
       <c r="E39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1830,8 +2045,11 @@
       <c r="E40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1847,8 +2065,11 @@
       <c r="E41">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1864,8 +2085,11 @@
       <c r="E42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1881,8 +2105,11 @@
       <c r="E43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1898,8 +2125,11 @@
       <c r="E44">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1915,8 +2145,11 @@
       <c r="E45">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1932,8 +2165,11 @@
       <c r="E46">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1949,8 +2185,11 @@
       <c r="E47">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1966,8 +2205,11 @@
       <c r="E48">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1983,8 +2225,11 @@
       <c r="E49">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2000,8 +2245,11 @@
       <c r="E50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2017,8 +2265,11 @@
       <c r="E51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2034,8 +2285,11 @@
       <c r="E52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2051,8 +2305,11 @@
       <c r="E53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2068,8 +2325,11 @@
       <c r="E54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2085,8 +2345,11 @@
       <c r="E55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -2102,8 +2365,11 @@
       <c r="E56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2119,8 +2385,11 @@
       <c r="E57">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -2136,8 +2405,11 @@
       <c r="E58">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2153,8 +2425,11 @@
       <c r="E59">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2170,8 +2445,11 @@
       <c r="E60">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2187,8 +2465,11 @@
       <c r="E61">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2204,8 +2485,11 @@
       <c r="E62">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2221,8 +2505,11 @@
       <c r="E63">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2238,8 +2525,11 @@
       <c r="E64">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2255,8 +2545,11 @@
       <c r="E65">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2272,8 +2565,11 @@
       <c r="E66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2289,8 +2585,11 @@
       <c r="E67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2306,8 +2605,11 @@
       <c r="E68">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2323,8 +2625,11 @@
       <c r="E69">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2340,8 +2645,11 @@
       <c r="E70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2357,8 +2665,11 @@
       <c r="E71">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2374,8 +2685,11 @@
       <c r="E72">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2391,8 +2705,11 @@
       <c r="E73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2408,8 +2725,11 @@
       <c r="E74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2425,8 +2745,11 @@
       <c r="E75">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2442,8 +2765,11 @@
       <c r="E76">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2459,8 +2785,11 @@
       <c r="E77">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2476,8 +2805,11 @@
       <c r="E78">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2493,8 +2825,11 @@
       <c r="E79">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2510,8 +2845,11 @@
       <c r="E80">
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2527,10 +2865,813 @@
       <c r="E81">
         <v>16</v>
       </c>
+      <c r="F81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>126</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>126</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>126</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>126</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>126</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>126</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>126</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+      <c r="F95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>126</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>126</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>126</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>126</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>126</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>126</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>126</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>126</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>126</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+      <c r="F110" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>126</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>126</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>126</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>126</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>126</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>126</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>126</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>7</v>
+      </c>
+      <c r="F120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Instrument Name" error="Please correct the instrument name or add new instrument in the drop-down list" promptTitle="Name of instrument" sqref="A7:A11" xr:uid="{485EC937-B24A-4727-B3B8-F5262791E4E3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Instrument Name" error="Please correct the instrument name or add new instrument in the drop-down list" promptTitle="Name of instrument" sqref="A7:A9 F7:F9" xr:uid="{485EC937-B24A-4727-B3B8-F5262791E4E3}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/instrument_info.xlsx
+++ b/instrument_info.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IITG-PHY\Desktop\Computer Control\cold atom exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Computer Control\programs\python programs\cold-atom-exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAA5CD3-C6FA-4518-A85B-0EDC29523068}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E85489-7C35-4870-BD09-A8579190311F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instrument_info" sheetId="1" r:id="rId1"/>
+    <sheet name="instrument_function" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="137">
   <si>
     <t>name</t>
   </si>
@@ -401,6 +402,36 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>coeffs</t>
+  </si>
+  <si>
+    <t>poly</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>[0,1]</t>
+  </si>
+  <si>
+    <t>[2,1]</t>
+  </si>
+  <si>
+    <t>[-1,1]</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>[0.5,0.5]</t>
+  </si>
+  <si>
+    <t>[0,0.5]</t>
   </si>
 </sst>
 </file>
@@ -1243,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3677,4 +3708,470 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A89B4C-2FE4-476C-989E-0471C5FB2646}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/instrument_info.xlsx
+++ b/instrument_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Computer Control\programs\python programs\cold-atom-exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IITG-PHY\Desktop\Computer Control\cold atom exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E85489-7C35-4870-BD09-A8579190311F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2839B2-37DF-4B5C-A40A-52CE6D5F93D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instrument_info" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="142">
   <si>
     <t>name</t>
   </si>
@@ -432,6 +432,21 @@
   </si>
   <si>
     <t>[0,0.5]</t>
+  </si>
+  <si>
+    <t>img_s</t>
+  </si>
+  <si>
+    <t>Do not connect</t>
+  </si>
+  <si>
+    <t>ccd</t>
+  </si>
+  <si>
+    <t>mot_s</t>
+  </si>
+  <si>
+    <t>mag_s</t>
   </si>
 </sst>
 </file>
@@ -915,8 +930,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1274,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,7 +2598,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2601,8 +2617,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>71</v>
+      <c r="A67" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2622,7 +2638,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2642,7 +2658,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2662,7 +2678,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3714,7 +3730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A89B4C-2FE4-476C-989E-0471C5FB2646}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8:C41"/>
     </sheetView>
   </sheetViews>

--- a/instrument_info.xlsx
+++ b/instrument_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IITG-PHY\Desktop\Computer Control\cold atom exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2839B2-37DF-4B5C-A40A-52CE6D5F93D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087D122-EDB4-416B-B343-13600C6C6045}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instrument_info" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="144">
   <si>
     <t>name</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t>mag_s</t>
+  </si>
+  <si>
+    <t>img_det</t>
+  </si>
+  <si>
+    <t>[2.7058,0.17164]</t>
   </si>
 </sst>
 </file>
@@ -1290,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:A70"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3398,7 +3404,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -3730,8 +3736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A89B4C-2FE4-476C-989E-0471C5FB2646}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4019,18 +4025,18 @@
         <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s">
         <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
